--- a/medicine/Psychotrope/Armagnac_Delord/Armagnac_Delord.xlsx
+++ b/medicine/Psychotrope/Armagnac_Delord/Armagnac_Delord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison Delord est une entreprise de production d'armagnac.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise Delord est fondée en 1893 par Prosper Delord (distillateur ambulant) et ses deux fils, Gaston et Georges, à Lannepax dans le Gers. Les petits fils de Prosper, Jacques et Pierre, ainsi que Jérôme et Sylvain perpétuent la tradition.
 </t>
@@ -542,7 +556,9 @@
           <t>Le vignoble Delord</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble est situé sur la commune de Lannepax au cœur du Bas-Armagnac et est composé des cépages baco 22A[Lequel ?], folle-blanche, ugni blanc et colombard.
 </t>
@@ -573,7 +589,9 @@
           <t>L'armagnac Delord</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie Delord utilise deux alambics armagnacais traditionnels. Les chais comptent plus de 1 000 fûts de chêne qui font mûrir les eaux-de-vie d'armagnac. Le doyen d'entre eux a été distillé en 1900 et est logé dans le Paradis avec d'autres eaux-de-vie d'armagnac. Toutes les bouteilles de la Maison Delord sont cachetées à la main avec de la cire.
 </t>
@@ -604,9 +622,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, l'entreprise est la 12e maison sur le marché total armagnac avec un volume global d'environ 100 000 bouteilles par an[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, l'entreprise est la 12e maison sur le marché total armagnac avec un volume global d'environ 100 000 bouteilles par an.
 </t>
         </is>
       </c>
